--- a/inst/templates/Individuals.xlsx
+++ b/inst/templates/Individuals.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ztcok\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30289F21-60C1-404F-8C35-686435B45819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D236CACC-0CE0-41C3-ADDF-3740E34FFCFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IndividualBiometrics" sheetId="1" r:id="rId1"/>
-    <sheet name="Indiv1" sheetId="2" r:id="rId2"/>
+    <sheet name="template_Ind" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -149,8 +149,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{FC690C68-0E55-48A3-908A-41ADC76A33D8}"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -430,11 +430,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
@@ -538,11 +538,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D3892D2-FAF9-44EE-B239-FAC53541F5B5}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="8.7109375" style="1"/>
@@ -819,6 +819,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="398d2b5b-77f8-4c5f-a794-3d35ce849315">
@@ -827,15 +836,6 @@
     <TaxCatchAll xmlns="1c52e43a-7a2d-43c4-9ede-f251c929c0a1" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -858,6 +858,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78CA0B51-7456-4883-901E-100C95177B36}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{028903B1-0B22-4BE6-8A73-043144867A27}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -866,12 +874,4 @@
     <ds:schemaRef ds:uri="1c52e43a-7a2d-43c4-9ede-f251c929c0a1"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78CA0B51-7456-4883-901E-100C95177B36}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>